--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_09-41.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_09-41.xlsx
@@ -41,21 +41,15 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>LEVANIC 500MG 7 F.C. TAB.</t>
   </si>
   <si>
@@ -63,12 +57,6 @@
   </si>
   <si>
     <t>4:1</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -714,7 +702,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
@@ -734,13 +722,13 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -752,7 +740,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -760,17 +748,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -792,11 +780,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -818,11 +806,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>24</v>
+        <v>11.67</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -844,7 +832,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -864,103 +852,51 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>11.67</v>
+        <v>15</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c t="s" r="B12" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="26.25" customHeight="1">
+      <c r="K12" s="10">
+        <v>223.66999999999999</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="11">
+        <v>23</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c t="s" r="F13" s="12">
         <v>24</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c t="s" r="H12" s="8">
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c t="s" r="I13" s="14">
         <v>25</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9">
-        <v>2</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c t="s" r="N12" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c t="s" r="B13" s="7">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c t="s" r="H13" s="8">
-        <v>25</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9">
-        <v>15</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c t="s" r="N13" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="K14" s="10">
-        <v>278.67000000000002</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="11">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c t="s" r="F15" s="12">
-        <v>28</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c t="s" r="I15" s="14">
-        <v>29</v>
-      </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="35">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -992,16 +928,10 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:N13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
